--- a/biology/Zoologie/Fejervarya/Fejervarya.xlsx
+++ b/biology/Zoologie/Fejervarya/Fejervarya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fejervarya est un genre d'amphibiens de la famille des Dicroglossidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fejervarya est un genre d'amphibiens de la famille des Dicroglossidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 45 espèces de ce genre se rencontrent dans l'Est de l'Asie du Sud, en Asie de l'Est, en Asie du Sud-Est et en Nouvelle-Guinée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 45 espèces de ce genre se rencontrent dans l'Est de l'Asie du Sud, en Asie de l'Est, en Asie du Sud-Est et en Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (10 juin 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (10 juin 2017) :
 Fejervarya andamanensis (Stoliczka, 1870)
 Fejervarya asmati Howlader, 2011
 Fejervarya brevipalmata (Peters, 1871)
@@ -586,7 +602,7 @@
 Fejervarya triora Stuart, Chuaynkern, Chan-ard, &amp; Inger, 2006
 Fejervarya verruculosa (Roux, 1911)
 Fejervarya vittigera (Wiegmann, 1834)
-En 2017, 4 nouvelles espèces ont été décrites (Zootaxa)[3] :
+En 2017, 4 nouvelles espèces ont été décrites (Zootaxa) :
 Fejervarya cepfi Garg &amp; Biju
 Fejervarya kadar Garg &amp; Biju
 Fejervarya manoharani Garg &amp; Biju
@@ -618,9 +634,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été réduit par le transfert dans Zakerana de nombreuses espèces[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été réduit par le transfert dans Zakerana de nombreuses espèces.
 </t>
         </is>
       </c>
@@ -649,7 +667,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bolkay, 1915 : Beiträge zur Osteologie einiger exotischer Raniden. Anatomischer Anzeiger, Jena, vol. 48, p. 172-183 (texte intégral (de)).</t>
         </is>
